--- a/biology/Zoologie/Harco/Harco.xlsx
+++ b/biology/Zoologie/Harco/Harco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Harco est une race de poules domestiques, "hybride" (métis F1 industriel) hongroise. Cette excellente poule pondeuse se trouve sur pratiquement tous les marchés.
@@ -512,7 +524,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est souvent confondue avec la poule Marans à cause de la couleur de son plumage, mais contrairement à celle-ci, elle ne possède pas de plumes aux pattes et ses œufs sont légèrement roux, et non très foncés comme ceux de la Marans.
 Elle ressemble également à la poule Black Rock.
@@ -544,15 +558,87 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Harco est une poule sociable reconnue pour sa ponte importante. Elle est facile à élever en enclos restreint.
-Elle commence à pondre à l'âge de 21 semaines et pond 280 œufs à 300 œufs par an la première année [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Harco est une poule sociable reconnue pour sa ponte importante. Elle est facile à élever en enclos restreint.
+Elle commence à pondre à l'âge de 21 semaines et pond 280 œufs à 300 œufs par an la première année .
 C'est une poule très robuste, très rustique, elle est peu sensible au pou rouge.
-Origine
-Cet "hybride F1" a été mis au point en Hongrie par la société Babolna Tetra.
-Description
-Crête : simple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Harco</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harco</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet "hybride F1" a été mis au point en Hongrie par la société Babolna Tetra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Harco</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harco</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Crête : simple
 Oreillons : rouges
 Couleur des tarses :
 Variétés de plumage : camail roux/cuivré et plumage noir à reflets verts.
